--- a/src/main/resources/Тестовые сценарии Redmine.xlsx
+++ b/src/main/resources/Тестовые сценарии Redmine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evgen\IdeaProjects\AFT2\src\main\java\redmine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evgen\IdeaProjects\AFT2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0148917-C9BE-40C3-9E86-595CB1057A00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C772A2-CA26-4A40-9520-9B9E989723F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +384,28 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -668,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -730,41 +752,74 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1049,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1528,302 +1583,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="3" width="48" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="85.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="81.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
+    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23" t="s">
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
+      <c r="B8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23" t="s">
+    <row r="9" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23" t="s">
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:4" ht="61.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="16" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:4" ht="81.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33" t="s">
+    <row r="21" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32" t="s">
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35" t="s">
+    <row r="23" spans="1:4" ht="61.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="39"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:4" ht="81.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33" t="s">
+    <row r="26" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35" t="s">
+    <row r="28" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="39"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1901,5 +1957,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/Тестовые сценарии Redmine.xlsx
+++ b/src/main/resources/Тестовые сценарии Redmine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evgen\IdeaProjects\AFT2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C772A2-CA26-4A40-9520-9B9E989723F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1C1D6-E4A6-4F97-967D-A957BBFE9517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>TestCase</t>
   </si>
@@ -360,12 +360,21 @@
 7. У пользователя нет доступа к проектам №1, №2
 8. У пользователя есть доступ к проекту №3 c ролью из п.3 предусловия</t>
   </si>
+  <si>
+    <t>f2b07eec53f92b54a8522488ca25491167419076</t>
+  </si>
+  <si>
+    <t>5aed704a56f9c2711d4cf2035a2d28a698b0cca1</t>
+  </si>
+  <si>
+    <t>5f53e117604928097361205d1bba409b5c6211a4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,13 +420,51 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FF629755"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -690,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -762,12 +809,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,15 +830,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -820,6 +852,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1165,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="53.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="74.42578125" style="5" customWidth="1"/>
@@ -1116,7 +1173,7 @@
     <col min="4" max="16384" width="9.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29.25" thickTop="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1193,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>5</v>
@@ -1145,35 +1202,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="42.75">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.5">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="43.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="43.5" thickTop="1">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1239,7 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>5</v>
@@ -1191,35 +1248,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="42.75">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.5">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="43.5" thickTop="1">
       <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1285,7 @@
       </c>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>5</v>
@@ -1237,28 +1294,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28.5">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="43.5" thickTop="1">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1267,7 +1324,7 @@
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
         <v>5</v>
@@ -1276,7 +1333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>20</v>
@@ -1285,14 +1342,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="129" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="129" thickTop="1">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1358,7 @@
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>5</v>
@@ -1310,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>20</v>
@@ -1319,28 +1376,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" thickBot="1">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="43.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="43.5" thickTop="1">
       <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
@@ -1349,7 +1406,7 @@
       </c>
       <c r="C29" s="20"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
         <v>31</v>
@@ -1358,7 +1415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
         <v>32</v>
@@ -1367,7 +1424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
         <v>33</v>
@@ -1376,14 +1433,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.5">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="29.25" thickBot="1">
       <c r="A34" s="15"/>
       <c r="B34" s="16" t="s">
         <v>41</v>
@@ -1392,7 +1449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="43.5" thickTop="1">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
@@ -1401,7 +1458,7 @@
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
         <v>31</v>
@@ -1410,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -1419,7 +1476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -1428,21 +1485,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="28.5">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="s">
         <v>42</v>
@@ -1451,14 +1508,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.5">
       <c r="A43" s="9"/>
       <c r="B43" s="10" t="s">
         <v>45</v>
@@ -1467,14 +1524,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
         <v>47</v>
@@ -1483,14 +1540,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.5">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
@@ -1499,14 +1556,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="29.25" thickBot="1">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="29.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="29.25" thickTop="1">
       <c r="A49" s="6" t="s">
         <v>52</v>
       </c>
@@ -1515,7 +1572,7 @@
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
         <v>5</v>
@@ -1524,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
         <v>32</v>
@@ -1533,7 +1590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
         <v>53</v>
@@ -1542,21 +1599,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="28.5">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
         <v>57</v>
@@ -1565,14 +1622,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="29.25" thickBot="1">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:3" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1581,21 +1638,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="95" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="85.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" thickTop="1" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1609,347 +1667,362 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="81.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="81.75" thickTop="1">
       <c r="A2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28" t="s">
+      <c r="F2" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" ht="60.75">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29" t="s">
+      <c r="F3" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
+      <c r="F4" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="40.5">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="1:9" ht="40.5">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+    <row r="7" spans="1:9" ht="40.5">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="1:9" ht="60.75">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32" t="s">
+    <row r="9" spans="1:9" ht="60.75">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="1:9" ht="60.75">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="s">
+    <row r="11" spans="1:9" ht="40.5">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="1:9" ht="20.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32" t="s">
+    <row r="13" spans="1:9" ht="40.5">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="1:9" ht="20.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32" t="s">
+    <row r="15" spans="1:9" ht="40.5">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="1:9" ht="21" thickBot="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="61.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:4" ht="61.5" thickTop="1">
+      <c r="A17" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-    </row>
-    <row r="18" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="1:4" ht="41.25" thickBot="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="81.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:4" ht="81.75" thickTop="1">
+      <c r="A19" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-    </row>
-    <row r="20" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:4" ht="40.5">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60.75" x14ac:dyDescent="0.35">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44" t="s">
+    <row r="21" spans="1:4" ht="60.75">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43" t="s">
+    <row r="22" spans="1:4" ht="40.5">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="61.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46" t="s">
+    <row r="23" spans="1:4" ht="61.5" thickBot="1">
+      <c r="A23" s="34"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="81.75" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:4" ht="81.75" thickTop="1">
+      <c r="A24" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+    </row>
+    <row r="25" spans="1:4" ht="40.5">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44" t="s">
+    <row r="26" spans="1:4" ht="40.5">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43" t="s">
+    <row r="27" spans="1:4" ht="40.5">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="39"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46" t="s">
+    <row r="28" spans="1:4" ht="41.25" thickBot="1">
+      <c r="A28" s="34"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" thickTop="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
